--- a/resources/file_list.xlsx
+++ b/resources/file_list.xlsx
@@ -443,63 +443,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GBT 36344-2018(信息技术 数据质量评价指标)</t>
+          <t>ExampleFile.txt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GBT 42129-2022 数据管理能力成熟度评估方法</t>
+          <t>ExampleFile.txt</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GBT36073-2018 数据管理能力成熟度评估模型</t>
+          <t>ExampleFile.txt</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025工业运营前沿技术：AI智能体 (AI Agents) 的崛起白皮书</t>
+          <t>ExampleFile.txt</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>从数据混乱到数据价值：企业如何优化数据质量</t>
+          <t>ExampleFile.txt</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>大模型时代：数据质量管理</t>
+          <t>ExampleFile.txt</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>数据治理体系：如何保证数据质量？</t>
+          <t>ExampleFile.txt</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>数据治理指南手册</t>
+          <t>ExampleFile.txt</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>数据治理：数据质量问题原因分析工具-鱼骨图 (PPT)</t>
+          <t>ExampleFile.txt</t>
         </is>
       </c>
     </row>
